--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf17.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf17.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H2">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I2">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J2">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N2">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1215551172727778</v>
+        <v>0.04579779886577778</v>
       </c>
       <c r="R2">
-        <v>1.093996055455</v>
+        <v>0.412180189792</v>
       </c>
       <c r="S2">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="T2">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.45002</v>
       </c>
       <c r="I3">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J3">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N3">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.02475175002888889</v>
+        <v>0.01468305255111111</v>
       </c>
       <c r="R3">
-        <v>0.22276575026</v>
+        <v>0.13214747296</v>
       </c>
       <c r="S3">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="T3">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H4">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I4">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J4">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N4">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.5293807625639999</v>
+        <v>0.5846911138471113</v>
       </c>
       <c r="R4">
-        <v>4.764426863075999</v>
+        <v>5.262220024624001</v>
       </c>
       <c r="S4">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="T4">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H5">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I5">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J5">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N5">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1661756165935</v>
+        <v>0.03219551777866667</v>
       </c>
       <c r="R5">
-        <v>0.9970536995610002</v>
+        <v>0.193173106672</v>
       </c>
       <c r="S5">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="T5">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H6">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I6">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J6">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N6">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.4976896452938889</v>
+        <v>0.5035655029280001</v>
       </c>
       <c r="R6">
-        <v>4.479206807645</v>
+        <v>4.532089526352</v>
       </c>
       <c r="S6">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="T6">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
     </row>
   </sheetData>
